--- a/output/5Y_P7_KFSDIV.xlsx
+++ b/output/5Y_P7_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-42</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-41</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-38</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-37</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-36</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-35</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-34</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-33</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-32</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-31</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-30</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.701</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-29</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8109</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-28</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.9322</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-27</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5846</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-26</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2867</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-25</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.0645</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-24</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8083</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.5636</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.1788</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.5668</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.962</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.2659</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-18</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.4103</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-17</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.3976</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-16</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.9013</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.3527</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-14</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8804</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6268</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3636</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8711</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1252</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-9</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1934</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1176</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-7</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3311</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-6</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3637</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-5</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.6447</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-4</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.486</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.1958</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.4264</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>17.107</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.8894</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.4004</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>15.3877</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>14.6367</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.0061</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.835</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>14.4216</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.2404</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.382</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.9583</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.2036</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.9136</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.4338</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.9657</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3568</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.2487</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3991</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.5985</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-42</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-41</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-38</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-37</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-36</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-35</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-34</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-33</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-32</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-31</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-30</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.701</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-29</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8109</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-28</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.9322</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-27</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5846</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-26</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2867</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-25</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.0645</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-24</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8083</v>
@@ -5409,10 +5412,10 @@
         <v>246823.17</v>
       </c>
       <c r="K21" s="1">
-        <v>167204.6359</v>
+        <v>167210.234</v>
       </c>
       <c r="L21" s="1">
-        <v>11.4741</v>
+        <v>11.4745</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.5636</v>
@@ -5462,10 +5465,10 @@
         <v>253279.083</v>
       </c>
       <c r="K22" s="1">
-        <v>166384.3091</v>
+        <v>166393.1859</v>
       </c>
       <c r="L22" s="1">
-        <v>11.4645</v>
+        <v>11.4651</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.1788</v>
@@ -5515,10 +5518,10 @@
         <v>263796.8474</v>
       </c>
       <c r="K23" s="1">
-        <v>179982.7266</v>
+        <v>179991.6033</v>
       </c>
       <c r="L23" s="1">
-        <v>11.6016</v>
+        <v>11.6022</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.5668</v>
@@ -5568,10 +5571,10 @@
         <v>296904.6738</v>
       </c>
       <c r="K24" s="1">
-        <v>196005.5708</v>
+        <v>196014.4476</v>
       </c>
       <c r="L24" s="1">
-        <v>11.7179</v>
+        <v>11.7185</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.962</v>
@@ -5621,10 +5624,10 @@
         <v>297355.1577</v>
       </c>
       <c r="K25" s="1">
-        <v>182780.8555</v>
+        <v>182842.555</v>
       </c>
       <c r="L25" s="1">
-        <v>11.5531</v>
+        <v>11.557</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.2659</v>
@@ -5674,10 +5677,10 @@
         <v>285241.1999</v>
       </c>
       <c r="K26" s="1">
-        <v>202408.7992</v>
+        <v>202470.4987</v>
       </c>
       <c r="L26" s="1">
-        <v>11.7516</v>
+        <v>11.7552</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-18</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.4103</v>
@@ -5727,10 +5730,10 @@
         <v>298027.0325</v>
       </c>
       <c r="K27" s="1">
-        <v>241720.7997</v>
+        <v>241782.4992</v>
       </c>
       <c r="L27" s="1">
-        <v>11.836</v>
+        <v>11.839</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-17</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.3976</v>
@@ -5780,10 +5783,10 @@
         <v>307732.1119</v>
       </c>
       <c r="K28" s="1">
-        <v>248806.2358</v>
+        <v>248867.9353</v>
       </c>
       <c r="L28" s="1">
-        <v>11.8523</v>
+        <v>11.8552</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-16</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.9013</v>
@@ -5833,10 +5836,10 @@
         <v>338107.4357</v>
       </c>
       <c r="K29" s="1">
-        <v>259113.9946</v>
+        <v>259175.6941</v>
       </c>
       <c r="L29" s="1">
-        <v>11.8739</v>
+        <v>11.8768</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.3527</v>
@@ -5886,10 +5889,10 @@
         <v>357904.3368</v>
       </c>
       <c r="K30" s="1">
-        <v>258140.1496</v>
+        <v>258205.7439</v>
       </c>
       <c r="L30" s="1">
-        <v>11.8703</v>
+        <v>11.8733</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-14</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8804</v>
@@ -5939,10 +5942,10 @@
         <v>379363.3743</v>
       </c>
       <c r="K31" s="1">
-        <v>258344.0639</v>
+        <v>258409.6582</v>
       </c>
       <c r="L31" s="1">
-        <v>11.8714</v>
+        <v>11.8744</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6268</v>
@@ -5992,10 +5995,10 @@
         <v>415290.4157</v>
       </c>
       <c r="K32" s="1">
-        <v>256878.3516</v>
+        <v>256949.8052</v>
       </c>
       <c r="L32" s="1">
-        <v>11.8614</v>
+        <v>11.8647</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3636</v>
@@ -6045,10 +6048,10 @@
         <v>440905.5168</v>
       </c>
       <c r="K33" s="1">
-        <v>250719.6136</v>
+        <v>250815.6499</v>
       </c>
       <c r="L33" s="1">
-        <v>11.8061</v>
+        <v>11.8107</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8711</v>
@@ -6098,10 +6101,10 @@
         <v>419819.4209</v>
       </c>
       <c r="K34" s="1">
-        <v>245081.9904</v>
+        <v>245200.5488</v>
       </c>
       <c r="L34" s="1">
-        <v>11.7432</v>
+        <v>11.7489</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1252</v>
@@ -6151,10 +6154,10 @@
         <v>445091.6068</v>
       </c>
       <c r="K35" s="1">
-        <v>286332.8059</v>
+        <v>286451.3643</v>
       </c>
       <c r="L35" s="1">
-        <v>12.0116</v>
+        <v>12.0165</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-9</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1934</v>
@@ -6204,10 +6207,10 @@
         <v>456715.822</v>
       </c>
       <c r="K36" s="1">
-        <v>290303.3203</v>
+        <v>290421.8786</v>
       </c>
       <c r="L36" s="1">
-        <v>12.0365</v>
+        <v>12.0414</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1176</v>
@@ -6257,10 +6260,10 @@
         <v>464814.3152</v>
       </c>
       <c r="K37" s="1">
-        <v>298696.7774</v>
+        <v>298815.3357</v>
       </c>
       <c r="L37" s="1">
-        <v>12.0887</v>
+        <v>12.0935</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-7</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3311</v>
@@ -6310,10 +6313,10 @@
         <v>516828.0891</v>
       </c>
       <c r="K38" s="1">
-        <v>310612.3537</v>
+        <v>310730.9121</v>
       </c>
       <c r="L38" s="1">
-        <v>12.1565</v>
+        <v>12.1611</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-6</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3637</v>
@@ -6363,10 +6366,10 @@
         <v>527616.4345</v>
       </c>
       <c r="K39" s="1">
-        <v>289585.9019</v>
+        <v>289788.5015</v>
       </c>
       <c r="L39" s="1">
-        <v>11.9751</v>
+        <v>11.9835</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-5</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.6447</v>
@@ -6416,10 +6419,10 @@
         <v>519795.1003</v>
       </c>
       <c r="K40" s="1">
-        <v>298834.5041</v>
+        <v>299037.1036</v>
       </c>
       <c r="L40" s="1">
-        <v>12.058</v>
+        <v>12.0661</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-4</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.486</v>
@@ -6469,10 +6472,10 @@
         <v>574392.572</v>
       </c>
       <c r="K41" s="1">
-        <v>326730.2913</v>
+        <v>326932.8909</v>
       </c>
       <c r="L41" s="1">
-        <v>12.2443</v>
+        <v>12.2519</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.1958</v>
@@ -6522,10 +6525,10 @@
         <v>602727.0915</v>
       </c>
       <c r="K42" s="1">
-        <v>314276.4911</v>
+        <v>314528.8513</v>
       </c>
       <c r="L42" s="1">
-        <v>12.1429</v>
+        <v>12.1526</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.4264</v>
@@ -6575,10 +6578,10 @@
         <v>618566.3333000001</v>
       </c>
       <c r="K43" s="1">
-        <v>305908.558</v>
+        <v>306194.3318</v>
       </c>
       <c r="L43" s="1">
-        <v>12.0598</v>
+        <v>12.0711</v>
       </c>
       <c r="M43" s="1">
         <v>0.75</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>17.107</v>
@@ -6628,10 +6631,10 @@
         <v>663072.6117</v>
       </c>
       <c r="K44" s="1">
-        <v>310085.9911</v>
+        <v>310371.7649</v>
       </c>
       <c r="L44" s="1">
-        <v>12.1034</v>
+        <v>12.1145</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.8894</v>
@@ -6681,10 +6684,10 @@
         <v>667602.1557999999</v>
       </c>
       <c r="K45" s="1">
-        <v>302655.3599</v>
+        <v>302970.828</v>
       </c>
       <c r="L45" s="1">
-        <v>12.0167</v>
+        <v>12.0292</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.4004</v>
@@ -6734,10 +6737,10 @@
         <v>687468.953</v>
       </c>
       <c r="K46" s="1">
-        <v>318187.8607</v>
+        <v>318503.3287</v>
       </c>
       <c r="L46" s="1">
-        <v>12.1892</v>
+        <v>12.2013</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>15.3877</v>
@@ -6787,10 +6790,10 @@
         <v>669590.1596</v>
       </c>
       <c r="K47" s="1">
-        <v>341017.9279</v>
+        <v>341333.3959</v>
       </c>
       <c r="L47" s="1">
-        <v>12.4037</v>
+        <v>12.4151</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>14.6367</v>
@@ -6840,10 +6843,10 @@
         <v>656988.0906999999</v>
       </c>
       <c r="K48" s="1">
-        <v>378957.0214</v>
+        <v>379272.4895</v>
       </c>
       <c r="L48" s="1">
-        <v>12.6513</v>
+        <v>12.6618</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.0061</v>
@@ -6893,10 +6896,10 @@
         <v>614498.7635</v>
       </c>
       <c r="K49" s="1">
-        <v>411537.6965</v>
+        <v>411853.1645</v>
       </c>
       <c r="L49" s="1">
-        <v>12.7904</v>
+        <v>12.8002</v>
       </c>
       <c r="M49" s="1">
         <v>0.5</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.835</v>
@@ -6946,10 +6949,10 @@
         <v>669317.0216</v>
       </c>
       <c r="K50" s="1">
-        <v>474147.1427</v>
+        <v>474462.6107</v>
       </c>
       <c r="L50" s="1">
-        <v>12.8218</v>
+        <v>12.8304</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>14.4216</v>
@@ -6999,10 +7002,10 @@
         <v>700095.5229</v>
       </c>
       <c r="K51" s="1">
-        <v>453474.9347</v>
+        <v>453873.0159</v>
       </c>
       <c r="L51" s="1">
-        <v>12.7781</v>
+        <v>12.7893</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.2404</v>
@@ -7052,10 +7055,10 @@
         <v>669141.0178</v>
       </c>
       <c r="K52" s="1">
-        <v>442653.2231</v>
+        <v>443094.5146</v>
       </c>
       <c r="L52" s="1">
-        <v>12.742</v>
+        <v>12.7547</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.382</v>
@@ -7105,10 +7108,10 @@
         <v>658377.9418</v>
       </c>
       <c r="K53" s="1">
-        <v>493812.1029</v>
+        <v>494253.3945</v>
       </c>
       <c r="L53" s="1">
-        <v>12.7945</v>
+        <v>12.8059</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.9583</v>
@@ -7158,10 +7161,10 @@
         <v>650413.3526</v>
       </c>
       <c r="K54" s="1">
-        <v>537049.9137</v>
+        <v>537491.2053</v>
       </c>
       <c r="L54" s="1">
-        <v>12.7624</v>
+        <v>12.7729</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.2036</v>
@@ -7211,10 +7214,10 @@
         <v>671173.2378999999</v>
       </c>
       <c r="K55" s="1">
-        <v>564953.1916</v>
+        <v>565394.4832</v>
       </c>
       <c r="L55" s="1">
-        <v>12.7215</v>
+        <v>12.7314</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.9136</v>
@@ -7264,10 +7267,10 @@
         <v>728578.4628</v>
       </c>
       <c r="K56" s="1">
-        <v>564078.2622999999</v>
+        <v>564523.0527</v>
       </c>
       <c r="L56" s="1">
-        <v>12.7223</v>
+        <v>12.7323</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.4338</v>
@@ -7317,10 +7320,10 @@
         <v>760731.5844000001</v>
       </c>
       <c r="K57" s="1">
-        <v>542574.5165</v>
+        <v>543105.2256</v>
       </c>
       <c r="L57" s="1">
-        <v>12.7138</v>
+        <v>12.7262</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.9657</v>
@@ -7370,10 +7373,10 @@
         <v>751221.0339</v>
       </c>
       <c r="K58" s="1">
-        <v>530372.6262000001</v>
+        <v>530952.1040000001</v>
       </c>
       <c r="L58" s="1">
-        <v>12.6976</v>
+        <v>12.7115</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3568</v>
@@ -7423,10 +7426,10 @@
         <v>789573.215</v>
       </c>
       <c r="K59" s="1">
-        <v>560001.5401</v>
+        <v>560581.0178</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7128</v>
+        <v>12.726</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.2487</v>
@@ -7476,10 +7479,10 @@
         <v>794878.4264999999</v>
       </c>
       <c r="K60" s="1">
-        <v>552779.9025</v>
+        <v>553388.2483</v>
       </c>
       <c r="L60" s="1">
-        <v>12.7045</v>
+        <v>12.7185</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3991</v>
@@ -7529,10 +7532,10 @@
         <v>811517.2745000001</v>
       </c>
       <c r="K61" s="1">
-        <v>567533.5937</v>
+        <v>568141.9395</v>
       </c>
       <c r="L61" s="1">
-        <v>12.7187</v>
+        <v>12.7323</v>
       </c>
       <c r="M61" s="1">
         <v>0.4</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.5985</v>
@@ -7582,10 +7585,10 @@
         <v>846496.836</v>
       </c>
       <c r="K62" s="1">
-        <v>570849.0793</v>
+        <v>571457.4251</v>
       </c>
       <c r="L62" s="1">
-        <v>12.7226</v>
+        <v>12.7362</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-42</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-41</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-38</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-37</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-36</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-35</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-34</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-33</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-32</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-31</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-30</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.701</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-29</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8109</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-28</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.9322</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-27</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5846</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-26</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2867</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-25</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.0645</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-24</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8083</v>
@@ -8721,10 +8724,10 @@
         <v>248350.9971</v>
       </c>
       <c r="K21" s="1">
-        <v>175682.2734</v>
+        <v>175686.0992</v>
       </c>
       <c r="L21" s="1">
-        <v>11.5224</v>
+        <v>11.5226</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.5636</v>
@@ -8774,10 +8777,10 @@
         <v>254633.4066</v>
       </c>
       <c r="K22" s="1">
-        <v>175357.0724</v>
+        <v>175362.1981</v>
       </c>
       <c r="L22" s="1">
-        <v>11.5188</v>
+        <v>11.5191</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.1788</v>
@@ -8827,10 +8830,10 @@
         <v>265158.4015</v>
       </c>
       <c r="K23" s="1">
-        <v>190182.8529</v>
+        <v>190187.9786</v>
       </c>
       <c r="L23" s="1">
-        <v>11.6573</v>
+        <v>11.6577</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.5668</v>
@@ -8880,10 +8883,10 @@
         <v>299518.6162</v>
       </c>
       <c r="K24" s="1">
-        <v>207623.1549</v>
+        <v>207628.2805</v>
       </c>
       <c r="L24" s="1">
-        <v>11.7733</v>
+        <v>11.7736</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.962</v>
@@ -8933,10 +8936,10 @@
         <v>299425.0255</v>
       </c>
       <c r="K25" s="1">
-        <v>194299.7109</v>
+        <v>194358.0537</v>
       </c>
       <c r="L25" s="1">
-        <v>11.6192</v>
+        <v>11.6227</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.2659</v>
@@ -8986,10 +8989,10 @@
         <v>285970.1065</v>
       </c>
       <c r="K26" s="1">
-        <v>215694.3085</v>
+        <v>215752.6512</v>
       </c>
       <c r="L26" s="1">
-        <v>11.8178</v>
+        <v>11.821</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-18</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.4103</v>
@@ -9039,10 +9042,10 @@
         <v>298927.3933</v>
       </c>
       <c r="K27" s="1">
-        <v>258029.5086</v>
+        <v>258087.8513</v>
       </c>
       <c r="L27" s="1">
-        <v>11.8929</v>
+        <v>11.8956</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-17</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.3976</v>
@@ -9092,10 +9095,10 @@
         <v>308610.5317</v>
       </c>
       <c r="K28" s="1">
-        <v>266263.9611</v>
+        <v>266322.3039</v>
       </c>
       <c r="L28" s="1">
-        <v>11.9089</v>
+        <v>11.9115</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-16</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.9013</v>
@@ -9145,10 +9148,10 @@
         <v>340338.6232</v>
       </c>
       <c r="K29" s="1">
-        <v>277979.2843</v>
+        <v>278037.627</v>
       </c>
       <c r="L29" s="1">
-        <v>11.9297</v>
+        <v>11.9322</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.3527</v>
@@ -9198,10 +9201,10 @@
         <v>360826.3884</v>
       </c>
       <c r="K30" s="1">
-        <v>277706.0907</v>
+        <v>277765.526</v>
       </c>
       <c r="L30" s="1">
-        <v>11.9288</v>
+        <v>11.9314</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-14</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8804</v>
@@ -9251,10 +9254,10 @@
         <v>383121.674</v>
       </c>
       <c r="K31" s="1">
-        <v>278721.1103</v>
+        <v>278780.5456</v>
       </c>
       <c r="L31" s="1">
-        <v>11.9335</v>
+        <v>11.9361</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6268</v>
@@ -9304,10 +9307,10 @@
         <v>420992.2979</v>
       </c>
       <c r="K32" s="1">
-        <v>277975.0031</v>
+        <v>278037.421</v>
       </c>
       <c r="L32" s="1">
-        <v>11.929</v>
+        <v>11.9317</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3636</v>
@@ -9357,10 +9360,10 @@
         <v>447837.1722</v>
       </c>
       <c r="K33" s="1">
-        <v>272205.6153</v>
+        <v>272291.0618</v>
       </c>
       <c r="L33" s="1">
-        <v>11.8821</v>
+        <v>11.8858</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8711</v>
@@ -9410,10 +9413,10 @@
         <v>424216.9535</v>
       </c>
       <c r="K34" s="1">
-        <v>267012.0638</v>
+        <v>267118.2584</v>
       </c>
       <c r="L34" s="1">
-        <v>11.8296</v>
+        <v>11.8343</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1252</v>
@@ -9463,10 +9466,10 @@
         <v>450747.2174</v>
       </c>
       <c r="K35" s="1">
-        <v>312544.5303</v>
+        <v>312650.7249</v>
       </c>
       <c r="L35" s="1">
-        <v>12.0919</v>
+        <v>12.096</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-9</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1934</v>
@@ -9516,10 +9519,10 @@
         <v>462509.1143</v>
       </c>
       <c r="K36" s="1">
-        <v>317799.6772</v>
+        <v>317905.8717</v>
       </c>
       <c r="L36" s="1">
-        <v>12.1211</v>
+        <v>12.1251</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1176</v>
@@ -9569,10 +9572,10 @@
         <v>470432.8978</v>
       </c>
       <c r="K37" s="1">
-        <v>327905.1908</v>
+        <v>328011.3854</v>
       </c>
       <c r="L37" s="1">
-        <v>12.1765</v>
+        <v>12.1805</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-7</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3311</v>
@@ -9622,10 +9625,10 @@
         <v>526305.008</v>
       </c>
       <c r="K38" s="1">
-        <v>341904.2296</v>
+        <v>342010.4242</v>
       </c>
       <c r="L38" s="1">
-        <v>12.2463</v>
+        <v>12.2501</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-6</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3637</v>
@@ -9675,10 +9678,10 @@
         <v>537168.6252</v>
       </c>
       <c r="K39" s="1">
-        <v>319973.5486</v>
+        <v>320167.3985</v>
       </c>
       <c r="L39" s="1">
-        <v>12.0784</v>
+        <v>12.0857</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-5</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.6447</v>
@@ -9728,10 +9731,10 @@
         <v>527591.2359</v>
       </c>
       <c r="K40" s="1">
-        <v>331181.3451</v>
+        <v>331375.195</v>
       </c>
       <c r="L40" s="1">
-        <v>12.1671</v>
+        <v>12.1742</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-4</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.486</v>
@@ -9781,10 +9784,10 @@
         <v>586631.6783</v>
       </c>
       <c r="K41" s="1">
-        <v>362927.5095</v>
+        <v>363121.3594</v>
       </c>
       <c r="L41" s="1">
-        <v>12.3517</v>
+        <v>12.3583</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.1958</v>
@@ -9834,10 +9837,10 @@
         <v>616872.4595999999</v>
       </c>
       <c r="K42" s="1">
-        <v>350354.687</v>
+        <v>350598.7731</v>
       </c>
       <c r="L42" s="1">
-        <v>12.2619</v>
+        <v>12.2705</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.4264</v>
@@ -9887,10 +9890,10 @@
         <v>633335.4522000001</v>
       </c>
       <c r="K43" s="1">
-        <v>342289.644</v>
+        <v>342565.9342</v>
       </c>
       <c r="L43" s="1">
-        <v>12.1917</v>
+        <v>12.2016</v>
       </c>
       <c r="M43" s="1">
         <v>0.75</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>17.107</v>
@@ -9940,10 +9943,10 @@
         <v>681572.6463</v>
       </c>
       <c r="K44" s="1">
-        <v>348118.9019</v>
+        <v>348395.1921</v>
       </c>
       <c r="L44" s="1">
-        <v>12.2449</v>
+        <v>12.2546</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.8894</v>
@@ -9993,10 +9996,10 @@
         <v>685486.5004</v>
       </c>
       <c r="K45" s="1">
-        <v>341111.7637</v>
+        <v>341416.0558</v>
       </c>
       <c r="L45" s="1">
-        <v>12.1735</v>
+        <v>12.1843</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.4004</v>
@@ -10046,10 +10049,10 @@
         <v>706422.0411</v>
       </c>
       <c r="K46" s="1">
-        <v>359663.9954</v>
+        <v>359968.2875</v>
       </c>
       <c r="L46" s="1">
-        <v>12.3523</v>
+        <v>12.3627</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>15.3877</v>
@@ -10099,10 +10102,10 @@
         <v>685239.8217</v>
       </c>
       <c r="K47" s="1">
-        <v>386434.149</v>
+        <v>386738.4411</v>
       </c>
       <c r="L47" s="1">
-        <v>12.5685</v>
+        <v>12.5784</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>14.6367</v>
@@ -10152,10 +10155,10 @@
         <v>669893.1867</v>
       </c>
       <c r="K48" s="1">
-        <v>430200.405</v>
+        <v>430504.6972</v>
       </c>
       <c r="L48" s="1">
-        <v>12.8094</v>
+        <v>12.8185</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.0061</v>
@@ -10205,10 +10208,10 @@
         <v>620883.7534</v>
       </c>
       <c r="K49" s="1">
-        <v>468102.417</v>
+        <v>468406.7091</v>
       </c>
       <c r="L49" s="1">
-        <v>12.9421</v>
+        <v>12.9505</v>
       </c>
       <c r="M49" s="1">
         <v>0.5</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.835</v>
@@ -10258,10 +10261,10 @@
         <v>681348.5054</v>
       </c>
       <c r="K50" s="1">
-        <v>539889.0788</v>
+        <v>540193.3709</v>
       </c>
       <c r="L50" s="1">
-        <v>12.954</v>
+        <v>12.9613</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>14.4216</v>
@@ -10311,10 +10314,10 @@
         <v>714827.4999000001</v>
       </c>
       <c r="K51" s="1">
-        <v>518030.9771</v>
+        <v>518422.6215</v>
       </c>
       <c r="L51" s="1">
-        <v>12.9182</v>
+        <v>12.928</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.2404</v>
@@ -10364,10 +10367,10 @@
         <v>678430.0077</v>
       </c>
       <c r="K52" s="1">
-        <v>507277.4604</v>
+        <v>507712.043</v>
       </c>
       <c r="L52" s="1">
-        <v>12.8893</v>
+        <v>12.9003</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.382</v>
@@ -10417,10 +10420,10 @@
         <v>664803.9628</v>
       </c>
       <c r="K53" s="1">
-        <v>566744.7770999999</v>
+        <v>567179.3597</v>
       </c>
       <c r="L53" s="1">
-        <v>12.9279</v>
+        <v>12.9378</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.9583</v>
@@ -10470,10 +10473,10 @@
         <v>654340.0781</v>
       </c>
       <c r="K54" s="1">
-        <v>617400.5621</v>
+        <v>617835.1446999999</v>
       </c>
       <c r="L54" s="1">
-        <v>12.8835</v>
+        <v>12.8925</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.2036</v>
@@ -10523,10 +10526,10 @@
         <v>676619.4739</v>
       </c>
       <c r="K55" s="1">
-        <v>650756.1775</v>
+        <v>651190.7601</v>
       </c>
       <c r="L55" s="1">
-        <v>12.834</v>
+        <v>12.8426</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.9136</v>
@@ -10576,10 +10579,10 @@
         <v>740836.7067</v>
       </c>
       <c r="K56" s="1">
-        <v>651371.6077000001</v>
+        <v>651806.1903</v>
       </c>
       <c r="L56" s="1">
-        <v>12.8334</v>
+        <v>12.842</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.4338</v>
@@ -10629,10 +10632,10 @@
         <v>776262.7607</v>
       </c>
       <c r="K57" s="1">
-        <v>628405.0098</v>
+        <v>628931.3558</v>
       </c>
       <c r="L57" s="1">
-        <v>12.8296</v>
+        <v>12.8403</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.9657</v>
@@ -10682,10 +10685,10 @@
         <v>763811.2023</v>
       </c>
       <c r="K58" s="1">
-        <v>616086.0078</v>
+        <v>616661.5906999999</v>
       </c>
       <c r="L58" s="1">
-        <v>12.8175</v>
+        <v>12.8295</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3568</v>
@@ -10735,10 +10738,10 @@
         <v>806482.015</v>
       </c>
       <c r="K59" s="1">
-        <v>651902.719</v>
+        <v>652478.3019</v>
       </c>
       <c r="L59" s="1">
-        <v>12.827</v>
+        <v>12.8383</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.2487</v>
@@ -10788,10 +10791,10 @@
         <v>811051.2432</v>
       </c>
       <c r="K60" s="1">
-        <v>645328.5036000001</v>
+        <v>645930.3665</v>
       </c>
       <c r="L60" s="1">
-        <v>12.8216</v>
+        <v>12.8335</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3991</v>
@@ -10841,10 +10844,10 @@
         <v>828743.9599</v>
       </c>
       <c r="K61" s="1">
-        <v>664189.1964</v>
+        <v>664791.0592</v>
       </c>
       <c r="L61" s="1">
-        <v>12.834</v>
+        <v>12.8456</v>
       </c>
       <c r="M61" s="1">
         <v>0.4</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.5985</v>
@@ -10894,10 +10897,10 @@
         <v>867734.9512</v>
       </c>
       <c r="K62" s="1">
-        <v>669865.235</v>
+        <v>670467.0979000001</v>
       </c>
       <c r="L62" s="1">
-        <v>12.8388</v>
+        <v>12.8503</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-42</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-41</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-38</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-37</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-36</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-35</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-34</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-33</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-32</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-31</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-30</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.701</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-29</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8109</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-28</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.9322</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-27</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5846</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-26</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2867</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-25</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.0645</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-24</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8083</v>
@@ -12033,10 +12036,10 @@
         <v>249932.3653</v>
       </c>
       <c r="K21" s="1">
-        <v>184679.3252</v>
+        <v>184681.156</v>
       </c>
       <c r="L21" s="1">
-        <v>11.5705</v>
+        <v>11.5706</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.5636</v>
@@ -12086,10 +12089,10 @@
         <v>256029.5668</v>
       </c>
       <c r="K22" s="1">
-        <v>184913.3261</v>
+        <v>184915.1569</v>
       </c>
       <c r="L22" s="1">
-        <v>11.5729</v>
+        <v>11.573</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.1788</v>
@@ -12139,10 +12142,10 @@
         <v>266560.9819</v>
       </c>
       <c r="K23" s="1">
-        <v>201081.6881</v>
+        <v>201083.5189</v>
       </c>
       <c r="L23" s="1">
-        <v>11.7127</v>
+        <v>11.7128</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.5668</v>
@@ -12192,10 +12195,10 @@
         <v>302260.1704</v>
       </c>
       <c r="K24" s="1">
-        <v>220075.7061</v>
+        <v>220077.5368</v>
       </c>
       <c r="L24" s="1">
-        <v>11.8281</v>
+        <v>11.8282</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.962</v>
@@ -12245,10 +12248,10 @@
         <v>301582.8557</v>
       </c>
       <c r="K25" s="1">
-        <v>206694.2814</v>
+        <v>206749.5608</v>
       </c>
       <c r="L25" s="1">
-        <v>11.6846</v>
+        <v>11.6878</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.2659</v>
@@ -12298,10 +12301,10 @@
         <v>286682.7266</v>
       </c>
       <c r="K26" s="1">
-        <v>230036.495</v>
+        <v>230091.7745</v>
       </c>
       <c r="L26" s="1">
-        <v>11.8834</v>
+        <v>11.8862</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-18</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.4103</v>
@@ -12351,10 +12354,10 @@
         <v>299825.0262</v>
       </c>
       <c r="K27" s="1">
-        <v>275683.2834</v>
+        <v>275738.5629</v>
       </c>
       <c r="L27" s="1">
-        <v>11.9489</v>
+        <v>11.9513</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-17</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.3976</v>
@@ -12404,10 +12407,10 @@
         <v>309484.1527</v>
       </c>
       <c r="K28" s="1">
-        <v>285221.0667</v>
+        <v>285276.3461</v>
       </c>
       <c r="L28" s="1">
-        <v>11.9645</v>
+        <v>11.9669</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-16</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.9013</v>
@@ -12457,10 +12460,10 @@
         <v>342680.8618</v>
       </c>
       <c r="K29" s="1">
-        <v>298529.5213</v>
+        <v>298584.8007</v>
       </c>
       <c r="L29" s="1">
-        <v>11.9842</v>
+        <v>11.9864</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.3527</v>
@@ -12510,10 +12513,10 @@
         <v>363920.2422</v>
       </c>
       <c r="K30" s="1">
-        <v>299091.5019</v>
+        <v>299146.7813</v>
       </c>
       <c r="L30" s="1">
-        <v>11.9859</v>
+        <v>11.9881</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-14</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8804</v>
@@ -12563,10 +12566,10 @@
         <v>387130.8289</v>
       </c>
       <c r="K31" s="1">
-        <v>301070.6977</v>
+        <v>301125.9772</v>
       </c>
       <c r="L31" s="1">
-        <v>11.9941</v>
+        <v>11.9963</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6268</v>
@@ -12616,10 +12619,10 @@
         <v>427133.5342</v>
       </c>
       <c r="K32" s="1">
-        <v>301197.7436</v>
+        <v>301253.023</v>
       </c>
       <c r="L32" s="1">
-        <v>11.9948</v>
+        <v>11.997</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3636</v>
@@ -12669,10 +12672,10 @@
         <v>455334.0631</v>
       </c>
       <c r="K33" s="1">
-        <v>295947.7827</v>
+        <v>296024.0174</v>
       </c>
       <c r="L33" s="1">
-        <v>11.9563</v>
+        <v>11.9593</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8711</v>
@@ -12722,10 +12725,10 @@
         <v>428910.8072</v>
       </c>
       <c r="K34" s="1">
-        <v>291342.1285</v>
+        <v>291436.7626</v>
       </c>
       <c r="L34" s="1">
-        <v>11.9142</v>
+        <v>11.9181</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1252</v>
@@ -12775,10 +12778,10 @@
         <v>456834.1543</v>
       </c>
       <c r="K35" s="1">
-        <v>341715.9399</v>
+        <v>341810.574</v>
       </c>
       <c r="L35" s="1">
-        <v>12.1704</v>
+        <v>12.1738</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-9</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1934</v>
@@ -12828,10 +12831,10 @@
         <v>468748.9541</v>
       </c>
       <c r="K36" s="1">
-        <v>348509.4691</v>
+        <v>348604.1033</v>
       </c>
       <c r="L36" s="1">
-        <v>12.2037</v>
+        <v>12.207</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1176</v>
@@ -12881,10 +12884,10 @@
         <v>476477.0493</v>
       </c>
       <c r="K37" s="1">
-        <v>360641.7746</v>
+        <v>360736.4088</v>
       </c>
       <c r="L37" s="1">
-        <v>12.2623</v>
+        <v>12.2655</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-7</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3311</v>
@@ -12934,10 +12937,10 @@
         <v>536671.2151</v>
       </c>
       <c r="K38" s="1">
-        <v>377096.9757</v>
+        <v>377191.6098</v>
       </c>
       <c r="L38" s="1">
-        <v>12.3339</v>
+        <v>12.337</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-6</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3637</v>
@@ -12987,10 +12990,10 @@
         <v>547619.5232000001</v>
       </c>
       <c r="K39" s="1">
-        <v>354288.4312</v>
+        <v>354474.2294</v>
       </c>
       <c r="L39" s="1">
-        <v>12.1794</v>
+        <v>12.1858</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-5</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.6447</v>
@@ -13040,10 +13043,10 @@
         <v>536059.0232000001</v>
       </c>
       <c r="K40" s="1">
-        <v>367845.0456</v>
+        <v>368030.8438</v>
       </c>
       <c r="L40" s="1">
-        <v>12.2738</v>
+        <v>12.28</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-4</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.486</v>
@@ -13093,10 +13096,10 @@
         <v>600123.6747</v>
       </c>
       <c r="K41" s="1">
-        <v>404091.4084</v>
+        <v>404277.2066</v>
       </c>
       <c r="L41" s="1">
-        <v>12.4566</v>
+        <v>12.4623</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.1958</v>
@@ -13146,10 +13149,10 @@
         <v>632531.379</v>
       </c>
       <c r="K42" s="1">
-        <v>391545.9439</v>
+        <v>391781.869</v>
       </c>
       <c r="L42" s="1">
-        <v>12.3784</v>
+        <v>12.3858</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.4264</v>
@@ -13199,10 +13202,10 @@
         <v>649705.847</v>
       </c>
       <c r="K43" s="1">
-        <v>383996.7327</v>
+        <v>384262.8021</v>
       </c>
       <c r="L43" s="1">
-        <v>12.3209</v>
+        <v>12.3295</v>
       </c>
       <c r="M43" s="1">
         <v>0.75</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>17.107</v>
@@ -13252,10 +13255,10 @@
         <v>702205.4267</v>
       </c>
       <c r="K44" s="1">
-        <v>391891.3009</v>
+        <v>392157.3703</v>
       </c>
       <c r="L44" s="1">
-        <v>12.3836</v>
+        <v>12.3921</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.8894</v>
@@ -13305,10 +13308,10 @@
         <v>705412.1662</v>
       </c>
       <c r="K45" s="1">
-        <v>385560.0172</v>
+        <v>385851.3877</v>
       </c>
       <c r="L45" s="1">
-        <v>12.3275</v>
+        <v>12.3368</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.4004</v>
@@ -13358,10 +13361,10 @@
         <v>727568.5363</v>
       </c>
       <c r="K46" s="1">
-        <v>407781.821</v>
+        <v>408073.1915</v>
       </c>
       <c r="L46" s="1">
-        <v>12.5126</v>
+        <v>12.5216</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>15.3877</v>
@@ -13411,10 +13414,10 @@
         <v>702565.4203999999</v>
       </c>
       <c r="K47" s="1">
-        <v>439304.7585</v>
+        <v>439596.129</v>
       </c>
       <c r="L47" s="1">
-        <v>12.7306</v>
+        <v>12.739</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>14.6367</v>
@@ -13464,10 +13467,10 @@
         <v>684033.2125</v>
       </c>
       <c r="K48" s="1">
-        <v>490032.6218</v>
+        <v>490323.9923</v>
       </c>
       <c r="L48" s="1">
-        <v>12.9645</v>
+        <v>12.9722</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.0061</v>
@@ -13517,10 +13520,10 @@
         <v>627430.9588</v>
       </c>
       <c r="K49" s="1">
-        <v>534343.8016</v>
+        <v>534635.1721</v>
       </c>
       <c r="L49" s="1">
-        <v>13.0905</v>
+        <v>13.0976</v>
       </c>
       <c r="M49" s="1">
         <v>0.5</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.835</v>
@@ -13570,10 +13573,10 @@
         <v>694485.0812</v>
       </c>
       <c r="K50" s="1">
-        <v>617062.3297</v>
+        <v>617353.7002</v>
       </c>
       <c r="L50" s="1">
-        <v>13.0826</v>
+        <v>13.0888</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>14.4216</v>
@@ -13623,10 +13626,10 @@
         <v>731130.2581</v>
       </c>
       <c r="K51" s="1">
-        <v>594076.5908</v>
+        <v>594459.8199999999</v>
       </c>
       <c r="L51" s="1">
-        <v>13.0542</v>
+        <v>13.0626</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.2404</v>
@@ -13676,10 +13679,10 @@
         <v>688329.1038</v>
       </c>
       <c r="K52" s="1">
-        <v>583673.3577000001</v>
+        <v>584098.1264</v>
       </c>
       <c r="L52" s="1">
-        <v>13.0318</v>
+        <v>13.0413</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.382</v>
@@ -13729,10 +13732,10 @@
         <v>671315.3744</v>
       </c>
       <c r="K53" s="1">
-        <v>653198.5769</v>
+        <v>653623.3456</v>
       </c>
       <c r="L53" s="1">
-        <v>13.0564</v>
+        <v>13.0649</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.9583</v>
@@ -13782,10 +13785,10 @@
         <v>657889.6292</v>
       </c>
       <c r="K54" s="1">
-        <v>712907.9049</v>
+        <v>713332.6737</v>
       </c>
       <c r="L54" s="1">
-        <v>12.9994</v>
+        <v>13.0071</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.2036</v>
@@ -13835,10 +13838,10 @@
         <v>681534.8540000001</v>
       </c>
       <c r="K55" s="1">
-        <v>726295.6515</v>
+        <v>726720.4202000001</v>
       </c>
       <c r="L55" s="1">
-        <v>12.9791</v>
+        <v>12.9867</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.9136</v>
@@ -13888,10 +13891,10 @@
         <v>751872.0488</v>
       </c>
       <c r="K56" s="1">
-        <v>736295.6515</v>
+        <v>736720.4202000001</v>
       </c>
       <c r="L56" s="1">
-        <v>12.9683</v>
+        <v>12.9758</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.4338</v>
@@ -13941,10 +13944,10 @@
         <v>791215.8551</v>
       </c>
       <c r="K57" s="1">
-        <v>733080.5405999999</v>
+        <v>733518.1553</v>
       </c>
       <c r="L57" s="1">
-        <v>12.9684</v>
+        <v>12.9761</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.9657</v>
@@ -13994,10 +13997,10 @@
         <v>775231.6405</v>
       </c>
       <c r="K58" s="1">
-        <v>720973.5908</v>
+        <v>721459.5948</v>
       </c>
       <c r="L58" s="1">
-        <v>12.9604</v>
+        <v>12.9692</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3568</v>
@@ -14047,10 +14050,10 @@
         <v>823099.4379</v>
       </c>
       <c r="K59" s="1">
-        <v>764590.1455</v>
+        <v>765076.1496</v>
       </c>
       <c r="L59" s="1">
-        <v>12.9622</v>
+        <v>12.9705</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.2487</v>
@@ -14100,10 +14103,10 @@
         <v>826778.4669999999</v>
       </c>
       <c r="K60" s="1">
-        <v>759178.9314999999</v>
+        <v>759686.5666</v>
       </c>
       <c r="L60" s="1">
-        <v>12.9593</v>
+        <v>12.968</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3991</v>
@@ -14153,10 +14156,10 @@
         <v>845748.7913</v>
       </c>
       <c r="K61" s="1">
-        <v>783405.6313</v>
+        <v>783913.2663</v>
       </c>
       <c r="L61" s="1">
-        <v>12.9689</v>
+        <v>12.9773</v>
       </c>
       <c r="M61" s="1">
         <v>0.4</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.5985</v>
@@ -14206,10 +14209,10 @@
         <v>889613.132</v>
       </c>
       <c r="K62" s="1">
-        <v>792361.4342</v>
+        <v>792869.0692</v>
       </c>
       <c r="L62" s="1">
-        <v>12.9738</v>
+        <v>12.9822</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-42</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-41</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-38</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-37</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-36</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-35</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-34</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-33</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-32</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-31</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-30</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.701</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-29</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8109</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-28</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.9322</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-27</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5846</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-26</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2867</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-25</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.0645</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-24</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8083</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.5636</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.1788</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.5668</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.962</v>
@@ -15557,10 +15560,10 @@
         <v>303778.9687</v>
       </c>
       <c r="K25" s="1">
-        <v>220081.6776</v>
+        <v>220135.1675</v>
       </c>
       <c r="L25" s="1">
-        <v>11.7519</v>
+        <v>11.7548</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.2659</v>
@@ -15610,10 +15613,10 @@
         <v>287320.6883</v>
       </c>
       <c r="K26" s="1">
-        <v>245571.0777</v>
+        <v>245624.5677</v>
       </c>
       <c r="L26" s="1">
-        <v>11.9504</v>
+        <v>11.953</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-18</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.4103</v>
@@ -15663,10 +15666,10 @@
         <v>300635.6093</v>
       </c>
       <c r="K27" s="1">
-        <v>291340.2619</v>
+        <v>291393.7518</v>
       </c>
       <c r="L27" s="1">
-        <v>12.0026</v>
+        <v>12.0048</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-17</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.3976</v>
@@ -15716,10 +15719,10 @@
         <v>310277.1596</v>
       </c>
       <c r="K28" s="1">
-        <v>301340.2619</v>
+        <v>301393.7518</v>
       </c>
       <c r="L28" s="1">
-        <v>12.0164</v>
+        <v>12.0186</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-16</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.9013</v>
@@ -15769,10 +15772,10 @@
         <v>344533.1048</v>
       </c>
       <c r="K29" s="1">
-        <v>311340.2619</v>
+        <v>311393.7518</v>
       </c>
       <c r="L29" s="1">
-        <v>12.0291</v>
+        <v>12.0311</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.3527</v>
@@ -15822,10 +15825,10 @@
         <v>366551.3623</v>
       </c>
       <c r="K30" s="1">
-        <v>322953.1996</v>
+        <v>323006.6895</v>
       </c>
       <c r="L30" s="1">
-        <v>12.0592</v>
+        <v>12.0612</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-14</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8804</v>
@@ -15875,10 +15878,10 @@
         <v>390764.3974</v>
       </c>
       <c r="K31" s="1">
-        <v>326073.1959</v>
+        <v>326126.6858</v>
       </c>
       <c r="L31" s="1">
-        <v>12.0706</v>
+        <v>12.0726</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6268</v>
@@ -15928,10 +15931,10 @@
         <v>433104.4288</v>
       </c>
       <c r="K32" s="1">
-        <v>327252.2033</v>
+        <v>327305.6933</v>
       </c>
       <c r="L32" s="1">
-        <v>12.0763</v>
+        <v>12.0783</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3636</v>
@@ -15981,10 +15984,10 @@
         <v>462800.4921</v>
       </c>
       <c r="K33" s="1">
-        <v>322676.2434</v>
+        <v>322747.9983</v>
       </c>
       <c r="L33" s="1">
-        <v>12.0463</v>
+        <v>12.0489</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8711</v>
@@ -16034,10 +16037,10 @@
         <v>433274.2414</v>
       </c>
       <c r="K34" s="1">
-        <v>318830.0791</v>
+        <v>318917.1993</v>
       </c>
       <c r="L34" s="1">
-        <v>12.0147</v>
+        <v>12.018</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1252</v>
@@ -16087,10 +16090,10 @@
         <v>462741.4479</v>
       </c>
       <c r="K35" s="1">
-        <v>374682.5989</v>
+        <v>374769.7191</v>
       </c>
       <c r="L35" s="1">
-        <v>12.2625</v>
+        <v>12.2654</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-9</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1934</v>
@@ -16140,10 +16143,10 @@
         <v>474826.2054</v>
       </c>
       <c r="K36" s="1">
-        <v>383313.0762</v>
+        <v>383400.1964</v>
       </c>
       <c r="L36" s="1">
-        <v>12.2995</v>
+        <v>12.3023</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1176</v>
@@ -16193,10 +16196,10 @@
         <v>482334.8848</v>
       </c>
       <c r="K37" s="1">
-        <v>397841.856</v>
+        <v>397928.9762</v>
       </c>
       <c r="L37" s="1">
-        <v>12.3605</v>
+        <v>12.3633</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-7</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3311</v>
@@ -16246,10 +16249,10 @@
         <v>547375.7328999999</v>
       </c>
       <c r="K38" s="1">
-        <v>417191.2471</v>
+        <v>417278.3672</v>
       </c>
       <c r="L38" s="1">
-        <v>12.4333</v>
+        <v>12.4359</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-6</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3637</v>
@@ -16299,10 +16302,10 @@
         <v>558419.4406</v>
       </c>
       <c r="K39" s="1">
-        <v>393553.931</v>
+        <v>393735.5279</v>
       </c>
       <c r="L39" s="1">
-        <v>12.2926</v>
+        <v>12.2982</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-5</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.6447</v>
@@ -16352,10 +16355,10 @@
         <v>544616.6234</v>
       </c>
       <c r="K40" s="1">
-        <v>409923.3845</v>
+        <v>410104.9813</v>
       </c>
       <c r="L40" s="1">
-        <v>12.3923</v>
+        <v>12.3978</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-4</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.486</v>
@@ -16405,10 +16408,10 @@
         <v>614370.0525</v>
       </c>
       <c r="K41" s="1">
-        <v>451434.5629</v>
+        <v>451616.1597</v>
       </c>
       <c r="L41" s="1">
-        <v>12.572</v>
+        <v>12.5771</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.1958</v>
@@ -16458,10 +16461,10 @@
         <v>649244.4465</v>
       </c>
       <c r="K42" s="1">
-        <v>439109.2306</v>
+        <v>439340.0747</v>
       </c>
       <c r="L42" s="1">
-        <v>12.5054</v>
+        <v>12.512</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.4264</v>
@@ -16511,10 +16514,10 @@
         <v>667231.6622</v>
       </c>
       <c r="K43" s="1">
-        <v>432348.0227</v>
+        <v>432605.8647</v>
       </c>
       <c r="L43" s="1">
-        <v>12.4607</v>
+        <v>12.4682</v>
       </c>
       <c r="M43" s="1">
         <v>0.75</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>17.107</v>
@@ -16564,10 +16567,10 @@
         <v>724608.2802</v>
       </c>
       <c r="K44" s="1">
-        <v>442814.874</v>
+        <v>443072.716</v>
       </c>
       <c r="L44" s="1">
-        <v>12.5327</v>
+        <v>12.54</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.8894</v>
@@ -16617,10 +16620,10 @@
         <v>727001.5492</v>
       </c>
       <c r="K45" s="1">
-        <v>437484.02</v>
+        <v>437763.1651</v>
       </c>
       <c r="L45" s="1">
-        <v>12.4918</v>
+        <v>12.4997</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.4004</v>
@@ -16670,10 +16673,10 @@
         <v>750554.5318</v>
       </c>
       <c r="K46" s="1">
-        <v>464166.1315</v>
+        <v>464445.2766</v>
       </c>
       <c r="L46" s="1">
-        <v>12.6827</v>
+        <v>12.6903</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>15.3877</v>
@@ -16723,10 +16726,10 @@
         <v>721123.7614</v>
       </c>
       <c r="K47" s="1">
-        <v>501428.4749</v>
+        <v>501707.62</v>
       </c>
       <c r="L47" s="1">
-        <v>12.9015</v>
+        <v>12.9087</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>14.6367</v>
@@ -16776,10 +16779,10 @@
         <v>698886.8636</v>
       </c>
       <c r="K48" s="1">
-        <v>560488.3574</v>
+        <v>560767.5024999999</v>
       </c>
       <c r="L48" s="1">
-        <v>13.1273</v>
+        <v>13.1338</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.0061</v>
@@ -16829,10 +16832,10 @@
         <v>633424.4044999999</v>
       </c>
       <c r="K49" s="1">
-        <v>612532.5108</v>
+        <v>612811.6559</v>
       </c>
       <c r="L49" s="1">
-        <v>13.2454</v>
+        <v>13.2514</v>
       </c>
       <c r="M49" s="1">
         <v>0.5</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.835</v>
@@ -16882,10 +16885,10 @@
         <v>705055.4798</v>
       </c>
       <c r="K50" s="1">
-        <v>655692.023</v>
+        <v>655971.1681</v>
       </c>
       <c r="L50" s="1">
-        <v>13.2311</v>
+        <v>13.2368</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>14.4216</v>
@@ -16935,10 +16938,10 @@
         <v>745249.1328</v>
       </c>
       <c r="K51" s="1">
-        <v>686502.2788</v>
+        <v>686781.4239000001</v>
       </c>
       <c r="L51" s="1">
-        <v>13.2582</v>
+        <v>13.2636</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.2404</v>
@@ -16988,10 +16991,10 @@
         <v>694896.2578</v>
       </c>
       <c r="K52" s="1">
-        <v>678047.6676</v>
+        <v>678360.5715</v>
       </c>
       <c r="L52" s="1">
-        <v>13.2446</v>
+        <v>13.2507</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.382</v>
@@ -17041,10 +17044,10 @@
         <v>677519.2913</v>
       </c>
       <c r="K53" s="1">
-        <v>706468.52</v>
+        <v>706781.4239000001</v>
       </c>
       <c r="L53" s="1">
-        <v>13.2455</v>
+        <v>13.2514</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.9583</v>
@@ -17094,10 +17097,10 @@
         <v>663886.1391</v>
       </c>
       <c r="K54" s="1">
-        <v>734898.442</v>
+        <v>735211.3459</v>
       </c>
       <c r="L54" s="1">
-        <v>13.211</v>
+        <v>13.2166</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.2036</v>
@@ -17147,10 +17150,10 @@
         <v>687668.1856</v>
       </c>
       <c r="K55" s="1">
-        <v>744898.442</v>
+        <v>745211.3459</v>
       </c>
       <c r="L55" s="1">
-        <v>13.1928</v>
+        <v>13.1983</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.9136</v>
@@ -17200,10 +17203,10 @@
         <v>758543.5174</v>
       </c>
       <c r="K56" s="1">
-        <v>754898.442</v>
+        <v>755211.3459</v>
       </c>
       <c r="L56" s="1">
-        <v>13.179</v>
+        <v>13.1845</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.4338</v>
@@ -17253,10 +17256,10 @@
         <v>799373.1722</v>
       </c>
       <c r="K57" s="1">
-        <v>785224.9451</v>
+        <v>785537.849</v>
       </c>
       <c r="L57" s="1">
-        <v>13.1696</v>
+        <v>13.1749</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.9657</v>
@@ -17306,10 +17309,10 @@
         <v>781135.8176</v>
       </c>
       <c r="K58" s="1">
-        <v>795224.9451</v>
+        <v>795537.849</v>
       </c>
       <c r="L58" s="1">
-        <v>13.1732</v>
+        <v>13.1784</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3568</v>
@@ -17359,10 +17362,10 @@
         <v>831256.5661000001</v>
       </c>
       <c r="K59" s="1">
-        <v>805224.9451</v>
+        <v>805537.849</v>
       </c>
       <c r="L59" s="1">
-        <v>13.1709</v>
+        <v>13.176</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.2487</v>
@@ -17412,10 +17415,10 @@
         <v>834342.7683999999</v>
       </c>
       <c r="K60" s="1">
-        <v>831524.0124</v>
+        <v>831836.9163</v>
       </c>
       <c r="L60" s="1">
-        <v>13.1775</v>
+        <v>13.1825</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3991</v>
@@ -17465,10 +17468,10 @@
         <v>853887.4714</v>
       </c>
       <c r="K61" s="1">
-        <v>841524.0124</v>
+        <v>841836.9163</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1787</v>
+        <v>13.1836</v>
       </c>
       <c r="M61" s="1">
         <v>0.4</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.5985</v>
@@ -17518,10 +17521,10 @@
         <v>899690.6834</v>
       </c>
       <c r="K62" s="1">
-        <v>851524.0124</v>
+        <v>851836.9163</v>
       </c>
       <c r="L62" s="1">
-        <v>13.1815</v>
+        <v>13.1864</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.2967</v>
       </c>
       <c r="D3" s="1">
-        <v>12.7226</v>
+        <v>12.7362</v>
       </c>
       <c r="E3" s="1">
-        <v>12.8388</v>
+        <v>12.8503</v>
       </c>
       <c r="F3" s="1">
-        <v>12.9738</v>
+        <v>12.9822</v>
       </c>
       <c r="G3" s="1">
-        <v>13.1815</v>
+        <v>13.1864</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>274824.6962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0468</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4813</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2942</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.122</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0562</v>
       </c>
     </row>
   </sheetData>
